--- a/biology/Botanique/Faramea/Faramea.xlsx
+++ b/biology/Botanique/Faramea/Faramea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea est un genre de plantes de la famille des Rubiaceae et dont l'espèce type est Faramea corymbosa Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea est un genre végétal qui a été décrit pour la première fois en l'an 1775 par Jean Baptiste Christian Fusée-Aublet.
 </t>
@@ -542,9 +556,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « FARAMEA. (Tabula 40. Fig. 1)
 CAL. Perianthium monophyllum, turbinatum, quadridentatum. 
 COR. monopetala, tubuloſa ; tubus diſco ſupra germ en infertus, limbus quadrifidus ; laciniis oblongis acutis. 
@@ -580,9 +596,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (10 janvier 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (10 janvier 2020) :
 Faramea accumulans C.M.Taylor
 Faramea acuminatissima Müll.Arg.
 Faramea affinis Müll.Arg.
